--- a/data/profiles/jockeys_t.xlsx
+++ b/data/profiles/jockeys_t.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Test Jockey</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -378,6 +381,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
